--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DE39A-D59F-4C4B-A9DF-EAE61A29E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A0F18C-F11A-42E7-9DF5-19B2544A61D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Added to github repository</t>
+  </si>
+  <si>
+    <t>Reset Classic Reimagined Core</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,6 +647,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A0F18C-F11A-42E7-9DF5-19B2544A61D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A224C5-0B46-4587-A51C-AAB69EC90DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>Added to github repository</t>
   </si>
   <si>
-    <t>Reset Classic Reimagined Core</t>
+    <t>Removed NostalgiaCraft core</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A224C5-0B46-4587-A51C-AAB69EC90DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FE251-A7B4-431D-B290-ED2F28F87576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FE251-A7B4-431D-B290-ED2F28F87576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD3BC9-E34F-49A1-9830-42E2C9EDDEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A14" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD3BC9-E34F-49A1-9830-42E2C9EDDEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A1C52-89D6-423D-B775-E1CECFB982AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A4:A14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>5200</v>
+        <v>5336</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A1C52-89D6-423D-B775-E1CECFB982AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE90A5-E1F7-4CF0-831A-248A615A6DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>5336</v>
+        <v>140</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE90A5-E1F7-4CF0-831A-248A615A6DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCAE9F1-4E98-449D-AB57-F55841DAA90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>140</v>
+        <v>5640</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCAE9F1-4E98-449D-AB57-F55841DAA90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716BE5BE-AC2F-47C0-9A2E-CB475B5A424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Removed NostalgiaCraft core</t>
+  </si>
+  <si>
+    <t>Changed textures for firefly bushes and dried grass</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,6 +655,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716BE5BE-AC2F-47C0-9A2E-CB475B5A424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196F443-1F2D-4038-A0D5-CBF1C50F2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Changed textures for firefly bushes and dried grass</t>
+  </si>
+  <si>
+    <t>Re-added boat textures</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,6 +663,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196F443-1F2D-4038-A0D5-CBF1C50F2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65007ED-2472-4F69-9555-D67A6A5D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>5640</v>
+        <v>6572</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65007ED-2472-4F69-9555-D67A6A5D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA6F05-EF65-4106-A0BA-A5F762BB55EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Re-added boat textures</t>
+  </si>
+  <si>
+    <t>Added trim template item textures</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,6 +671,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA6F05-EF65-4106-A0BA-A5F762BB55EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB345B-26BF-453C-A207-A64CF6CC6705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Added trim template item textures</t>
+  </si>
+  <si>
+    <t>spherical fog is back for 1.21.6</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,6 +679,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB345B-26BF-453C-A207-A64CF6CC6705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BBFEE-792B-4DD0-AEC3-8BA55E9169AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>6572</v>
+        <v>6975</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexy\AppData\Roaming\ModrinthApp\profiles\Classic Reimagined 10 Dependency Modpack\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BBFEE-792B-4DD0-AEC3-8BA55E9169AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DC341-3D41-423B-8404-998CA6356E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>spherical fog is back for 1.21.6</t>
+  </si>
+  <si>
+    <t>Fixed lightmap</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -684,6 +687,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexy\AppData\Roaming\ModrinthApp\profiles\Classic Reimagined 10 Dependency Modpack\resourcepacks\Classic Reimagined LTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DC341-3D41-423B-8404-998CA6356E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9472C-6247-4912-AA3A-69DCFF404C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Fixed lightmap</t>
+  </si>
+  <si>
+    <t>Restored classic clouds pattern</t>
   </si>
 </sst>
 </file>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -692,6 +695,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9472C-6247-4912-AA3A-69DCFF404C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A5774-ABA5-42DB-9FCE-9F40092D9868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Restored classic clouds pattern</t>
+  </si>
+  <si>
+    <t>Changed cloud fog to cylindrical shape</t>
+  </si>
+  <si>
+    <t>Changed terrain fog to spherical shape</t>
   </si>
 </sst>
 </file>
@@ -562,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>6975</v>
+        <v>7144</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -698,6 +704,16 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A5774-ABA5-42DB-9FCE-9F40092D9868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA527D5D-244F-4563-9800-90DCA95E0CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Changed terrain fog to spherical shape</t>
+  </si>
+  <si>
+    <t>Updated HD panorama</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,6 +719,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA527D5D-244F-4563-9800-90DCA95E0CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE72FFA9-3612-4CDF-845A-6776D3966699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Added trim template item textures</t>
   </si>
   <si>
-    <t>spherical fog is back for 1.21.6</t>
-  </si>
-  <si>
     <t>Fixed lightmap</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Updated HD panorama</t>
+  </si>
+  <si>
+    <t>spherical fog is back for 1.21.2+</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,32 +696,32 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE72FFA9-3612-4CDF-845A-6776D3966699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA34CAE0-A543-4CF7-B2CB-D4B33D688D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>7144</v>
+        <v>7318</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA34CAE0-A543-4CF7-B2CB-D4B33D688D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C41F6C-2813-4896-B91D-4ED7D283CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7">
-        <v>7318</v>
+        <v>7578</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C41F6C-2813-4896-B91D-4ED7D283CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198802B1-E5FC-405B-BBF6-40F284999150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A23" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,97 +626,97 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198802B1-E5FC-405B-BBF6-40F284999150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D932F5-A237-4EDE-9E89-9E0850E6B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -59,70 +59,10 @@
     <t>Changes done!</t>
   </si>
   <si>
-    <t>10.0.5</t>
-  </si>
-  <si>
     <t>1.21.6</t>
   </si>
   <si>
-    <t>Fixed fire animation error</t>
-  </si>
-  <si>
-    <t>Changed sculk shrieker sound to vanilla sound</t>
-  </si>
-  <si>
-    <t>Fixed fog</t>
-  </si>
-  <si>
-    <t>Fixed fire textures</t>
-  </si>
-  <si>
-    <t>Fixed soul fire model</t>
-  </si>
-  <si>
-    <t>Fixed cloud shaders</t>
-  </si>
-  <si>
-    <t>Fixed stars shaders</t>
-  </si>
-  <si>
-    <t>Reimproved ambiental fog</t>
-  </si>
-  <si>
-    <t>Changed raw ore textures</t>
-  </si>
-  <si>
-    <t>Added to github repository</t>
-  </si>
-  <si>
-    <t>Removed NostalgiaCraft core</t>
-  </si>
-  <si>
-    <t>Changed textures for firefly bushes and dried grass</t>
-  </si>
-  <si>
-    <t>Re-added boat textures</t>
-  </si>
-  <si>
-    <t>Added trim template item textures</t>
-  </si>
-  <si>
-    <t>Fixed lightmap</t>
-  </si>
-  <si>
-    <t>Restored classic clouds pattern</t>
-  </si>
-  <si>
-    <t>Changed cloud fog to cylindrical shape</t>
-  </si>
-  <si>
-    <t>Changed terrain fog to spherical shape</t>
-  </si>
-  <si>
-    <t>Updated HD panorama</t>
-  </si>
-  <si>
-    <t>spherical fog is back for 1.21.2+</t>
+    <t>10.0.6</t>
   </si>
 </sst>
 </file>
@@ -571,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A4:A23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,10 +542,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="7">
         <v>7578</v>
@@ -623,106 +563,6 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D932F5-A237-4EDE-9E89-9E0850E6B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B1BCB9-80E2-4482-9829-93798A547E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7578</v>
+        <v>7707</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B1BCB9-80E2-4482-9829-93798A547E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2869A-3541-41A6-96A1-6631FBCC5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7707</v>
+        <v>7792</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B2869A-3541-41A6-96A1-6631FBCC5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD09CFA-EB07-48FD-8E7E-8B35B29874A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>10.0.6</t>
+  </si>
+  <si>
+    <t>Improved fog shaders for 1.21.6</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,6 +567,11 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD09CFA-EB07-48FD-8E7E-8B35B29874A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14308E-3877-4F1F-AED1-11F3389C5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>10.0.6</t>
   </si>
   <si>
-    <t>Improved fog shaders for 1.21.6</t>
+    <t>Improved fog shaders for 1.21.2+</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7792</v>
+        <v>7814</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14308E-3877-4F1F-AED1-11F3389C5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF7F16-FBA1-48E5-BA2F-6EB9DB818BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7814</v>
+        <v>7817</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF7F16-FBA1-48E5-BA2F-6EB9DB818BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6F3CA-F8E9-48D3-BB1C-CCC1C330D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Improved fog shaders for 1.21.2+</t>
+  </si>
+  <si>
+    <t>Changed lightmap 1.21.6+ (Vanilla)</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7817</v>
+        <v>7821</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -572,6 +575,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic_Reimagined_LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6F3CA-F8E9-48D3-BB1C-CCC1C330D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF177A-D6A6-43BA-A702-339522C93C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7821</v>
+        <v>7829</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic_Reimagined_LTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF177A-D6A6-43BA-A702-339522C93C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4774F506-36B7-4C60-8335-ADE5E24F5FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7829</v>
+        <v>7830</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4774F506-36B7-4C60-8335-ADE5E24F5FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE52584F-49F9-4019-BFCC-184807124C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Improved fog shaders for 1.21.2+</t>
   </si>
   <si>
-    <t>Changed lightmap 1.21.6+ (Vanilla)</t>
+    <t>Changed lightmap 1.21+ (Vanilla)</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7830</v>
+        <v>7840</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE52584F-49F9-4019-BFCC-184807124C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36F3D2-1AD9-494E-B3CA-0568066BBFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7840</v>
+        <v>7842</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36F3D2-1AD9-494E-B3CA-0568066BBFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0372475-0CCE-4FC9-88D1-2F9AD4F01FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Changed lightmap 1.21+ (Vanilla)</t>
+  </si>
+  <si>
+    <t>Fixed mipmaps not working</t>
+  </si>
+  <si>
+    <t>Fixed cloud shaders</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7842</v>
+        <v>7853</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -580,6 +586,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0372475-0CCE-4FC9-88D1-2F9AD4F01FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9C59B-3A22-4C81-86D3-1B7CF60C6CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9C59B-3A22-4C81-86D3-1B7CF60C6CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D9334-C9EA-4502-9FAD-3148C96BE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7854</v>
+        <v>7858</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D9334-C9EA-4502-9FAD-3148C96BE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE561C0-6E54-4DE1-9A71-E5E28CE55890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Fixed cloud shaders</t>
+  </si>
+  <si>
+    <t>Deprecated Sodium support</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,6 +599,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE561C0-6E54-4DE1-9A71-E5E28CE55890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD77B35-B02E-460F-8A11-B9E35D2A0A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7858</v>
+        <v>7868</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD77B35-B02E-460F-8A11-B9E35D2A0A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584AF38A-76AF-4C6C-8309-7D52F86C71A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7">
-        <v>7868</v>
+        <v>7880</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584AF38A-76AF-4C6C-8309-7D52F86C71A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAC6CA-5B35-4675-AEF8-E85BA646D7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>1.21.6</t>
   </si>
   <si>
-    <t>10.0.6</t>
-  </si>
-  <si>
     <t>Improved fog shaders for 1.21.2+</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Deprecated Sodium support</t>
+  </si>
+  <si>
+    <t>10.0.7</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7">
         <v>7880</v>
@@ -581,27 +581,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAC6CA-5B35-4675-AEF8-E85BA646D7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A0413-A768-4DBE-AAF5-BF853DF7BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="7">
-        <v>7880</v>
+        <v>7883</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A0413-A768-4DBE-AAF5-BF853DF7BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90852480-D9EC-443E-A06D-E76F34773B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>10.0.7</t>
+  </si>
+  <si>
+    <t>Changed Vex CEM</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,6 +607,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90852480-D9EC-443E-A06D-E76F34773B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC16948-F653-4D6D-B59D-A2A453F5CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Changed Vex CEM</t>
+  </si>
+  <si>
+    <t>Fixed Rabbit CEM</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,6 +615,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC16948-F653-4D6D-B59D-A2A453F5CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D586716-2C5D-4C3B-A540-7694FD29237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Fixed Rabbit CEM</t>
+  </si>
+  <si>
+    <t>Refactor bat model and update texture for improved visuals</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -620,6 +623,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D586716-2C5D-4C3B-A540-7694FD29237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D0DB17-67FE-4927-BB12-5285CB352794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="7">
-        <v>7883</v>
+        <v>7929</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D0DB17-67FE-4927-BB12-5285CB352794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21873DB-8E68-48B3-9B20-E2C8C15EAB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="7">
-        <v>7929</v>
+        <v>7931</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21873DB-8E68-48B3-9B20-E2C8C15EAB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04C3E1-3CC5-4555-A5D4-FA5BDCB01F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Refactor bat model and update texture for improved visuals</t>
+  </si>
+  <si>
+    <t>Added support for Polytone</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,6 +631,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04C3E1-3CC5-4555-A5D4-FA5BDCB01F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCCA37-CC99-4CFB-B7CA-8C1ACD6D41C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="7">
-        <v>7931</v>
+        <v>7950</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCCA37-CC99-4CFB-B7CA-8C1ACD6D41C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9EA202-5E79-4F87-8925-DE4427068182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -50,12 +50,6 @@
     <t>Contributions</t>
   </si>
   <si>
-    <t>Known issues</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Changes done!</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>Added support for Polytone</t>
+  </si>
+  <si>
+    <t>Known issues/Goals</t>
+  </si>
+  <si>
+    <t>VulkanMod compatibility</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,27 +564,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7">
         <v>7950</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
@@ -593,47 +593,47 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9EA202-5E79-4F87-8925-DE4427068182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3677198-2BC5-4319-99D3-340FB37B9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>VulkanMod compatibility</t>
+  </si>
+  <si>
+    <t>Removed OptiFine Lightmaps</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,6 +639,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3677198-2BC5-4319-99D3-340FB37B9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8102102C-A510-48A2-9E76-D774E8F9DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Removed OptiFine Lightmaps</t>
+  </si>
+  <si>
+    <t>Reimproved lighting (Vanilla, OptiFine)</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -644,6 +647,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8102102C-A510-48A2-9E76-D774E8F9DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32327A40-3C46-47C2-B8E6-9728456DF7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="7">
-        <v>7950</v>
+        <v>7972</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32327A40-3C46-47C2-B8E6-9728456DF7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93687F-0B60-47D7-B11E-5D2EE75A9763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Reimproved lighting (Vanilla, OptiFine)</t>
+  </si>
+  <si>
+    <t>Updated pack format to 63 (Classic Reimagined 10 SE C2 only)</t>
+  </si>
+  <si>
+    <t>Fixed broken mycelium texture</t>
+  </si>
+  <si>
+    <t>Changed Nylium textures</t>
   </si>
 </sst>
 </file>
@@ -544,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,7 +608,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,22 +618,22 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,22 +643,37 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93687F-0B60-47D7-B11E-5D2EE75A9763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7672B-0E7E-46CB-A38D-81D9D341861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="7">
-        <v>7972</v>
+        <v>7977</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -618,62 +618,62 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7672B-0E7E-46CB-A38D-81D9D341861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F979A9D-783D-450C-8DBE-4A9892D5B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -56,55 +56,16 @@
     <t>1.21.6</t>
   </si>
   <si>
-    <t>Improved fog shaders for 1.21.2+</t>
-  </si>
-  <si>
-    <t>Changed lightmap 1.21+ (Vanilla)</t>
-  </si>
-  <si>
-    <t>Fixed mipmaps not working</t>
-  </si>
-  <si>
-    <t>Fixed cloud shaders</t>
-  </si>
-  <si>
-    <t>Deprecated Sodium support</t>
-  </si>
-  <si>
     <t>10.0.7</t>
   </si>
   <si>
-    <t>Changed Vex CEM</t>
-  </si>
-  <si>
-    <t>Fixed Rabbit CEM</t>
-  </si>
-  <si>
-    <t>Refactor bat model and update texture for improved visuals</t>
-  </si>
-  <si>
-    <t>Added support for Polytone</t>
-  </si>
-  <si>
     <t>Known issues/Goals</t>
   </si>
   <si>
     <t>VulkanMod compatibility</t>
   </si>
   <si>
-    <t>Removed OptiFine Lightmaps</t>
-  </si>
-  <si>
-    <t>Reimproved lighting (Vanilla, OptiFine)</t>
-  </si>
-  <si>
-    <t>Updated pack format to 63 (Classic Reimagined 10 SE C2 only)</t>
-  </si>
-  <si>
-    <t>Fixed broken mycelium texture</t>
-  </si>
-  <si>
-    <t>Changed Nylium textures</t>
+    <t>Fixed enchantment glint not working</t>
   </si>
 </sst>
 </file>
@@ -553,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -587,14 +548,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -608,72 +569,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\better_default\resourcepacks\Classic Reimagined LTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F979A9D-783D-450C-8DBE-4A9892D5B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AED3B8-71A6-4B13-9D5F-D12FF87C8439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78FFC81C-E409-4A91-B2FB-77FB25E4AB06}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -65,7 +65,13 @@
     <t>VulkanMod compatibility</t>
   </si>
   <si>
-    <t>Fixed enchantment glint not working</t>
+    <t>Changed panorama</t>
+  </si>
+  <si>
+    <t>Fixed enchantment glint not working (1.21.2)</t>
+  </si>
+  <si>
+    <t>Fixed VRAM leakage</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE7BC97-825F-4E4F-95C0-CEEB2FCB8921}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,7 +575,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexy\AppData\Roaming\ModrinthApp\profiles\Classic Reimagined 10 Dependency Modpack\resourcepacks\Classic Reimagined LTSC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB0BEE-58AE-4500-8B51-EAD379F39A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,76 +25,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Minecraft Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known issues/Goals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VulkanMod compatibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes done!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed enchantment glint not working (1.21.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changed panorama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed VRAM leakage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changed cloud fog to be cylindrical (1.21.2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Minecraft Version</t>
+  </si>
+  <si>
+    <t>Pack Version</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Contributions</t>
+  </si>
+  <si>
+    <t>Known issues/Goals</t>
+  </si>
+  <si>
+    <t>1.21.6</t>
+  </si>
+  <si>
+    <t>10.0.7</t>
+  </si>
+  <si>
+    <t>VulkanMod compatibility</t>
+  </si>
+  <si>
+    <t>Changes done!</t>
+  </si>
+  <si>
+    <t>Fixed enchantment glint not working (1.21.2)</t>
+  </si>
+  <si>
+    <t>Changed panorama</t>
+  </si>
+  <si>
+    <t>Fixed VRAM leakage</t>
+  </si>
+  <si>
+    <t>Changed cloud fog to be cylindrical (1.21.2)</t>
+  </si>
+  <si>
+    <t>Fixed mipmaps</t>
+  </si>
+  <si>
+    <t>Update panorama images for title background</t>
+  </si>
+  <si>
+    <t>Fixed fire model (Sodium)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -106,7 +102,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
@@ -153,96 +149,53 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -301,60 +254,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -386,7 +355,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -410,7 +379,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -470,32 +439,31 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="9.14"/>
+    <col min="1" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,22 +480,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>7978</v>
+      <c r="C2" s="7">
+        <v>8200</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -536,36 +504,46 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexy\AppData\Roaming\ModrinthApp\profiles\Classic Reimagined 10 Dependency Modpack\resourcepacks\Classic Reimagined LTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexy\AppData\Roaming\ModrinthApp\profiles\Classic Reimagined 10 Dependency Modpack\resourcepacks\Classic Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB0BEE-58AE-4500-8B51-EAD379F39A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F941A660-FDF3-4B82-B24B-496A95DBF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Known issues/Goals</t>
   </si>
   <si>
-    <t>1.21.6</t>
-  </si>
-  <si>
-    <t>10.0.7</t>
-  </si>
-  <si>
     <t>VulkanMod compatibility</t>
   </si>
   <si>
@@ -73,6 +67,18 @@
   </si>
   <si>
     <t>Fixed fire model (Sodium)</t>
+  </si>
+  <si>
+    <t>Changed dried ghast textures</t>
+  </si>
+  <si>
+    <t>10.0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Released Classic Reimagined 11 (WIP) </t>
+  </si>
+  <si>
+    <t>1.21.7</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,22 +488,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7">
-        <v>8200</v>
+        <v>8255</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
@@ -506,37 +512,47 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexy\AppData\Roaming\ModrinthApp\profiles\Classic Reimagined 10 Dependency Modpack\resourcepacks\Classic Reimagined\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Classic Reimagined 10\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F941A660-FDF3-4B82-B24B-496A95DBF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB895662-07E5-452C-A9DA-F63FE4CB23C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>1.21.7</t>
+  </si>
+  <si>
+    <t>Fixed soul fire model (Sodium)</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,6 +558,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Classic Reimagined 10\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB895662-07E5-452C-A9DA-F63FE4CB23C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405BCF2-F3AB-452E-9A2B-7B5DF87D0F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -78,17 +78,20 @@
     <t xml:space="preserve">Released Classic Reimagined 11 (WIP) </t>
   </si>
   <si>
-    <t>1.21.7</t>
-  </si>
-  <si>
     <t>Fixed soul fire model (Sodium)</t>
+  </si>
+  <si>
+    <t>Added support for 1.21.9</t>
+  </si>
+  <si>
+    <t>1.21.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="5" width="18.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,22 +492,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7">
-        <v>8255</v>
+        <v>9650</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -513,53 +516,58 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Classic Reimagined 10\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405BCF2-F3AB-452E-9A2B-7B5DF87D0F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA84E9-9CAD-4A24-87A4-787CA49CD017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>1.21.9</t>
+  </si>
+  <si>
+    <t>Fixed enderman emissive</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -571,6 +574,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Classic Reimagined 10\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA84E9-9CAD-4A24-87A4-787CA49CD017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716C3BC-84C2-4B0A-8A85-F1EC5265AEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Contributions</t>
   </si>
   <si>
-    <t>Known issues/Goals</t>
-  </si>
-  <si>
-    <t>VulkanMod compatibility</t>
-  </si>
-  <si>
     <t>Changes done!</t>
   </si>
   <si>
@@ -88,6 +82,24 @@
   </si>
   <si>
     <t>Fixed enderman emissive</t>
+  </si>
+  <si>
+    <t>Added copper stuff textures (1.21.9 - preview)</t>
+  </si>
+  <si>
+    <t>Fixed lighting (Vanilla)</t>
+  </si>
+  <si>
+    <t>Deprecated support for OpenGL 4.6 and older (Shaders are written in GLSL version 460)</t>
+  </si>
+  <si>
+    <t>OpenGL 4.5 and older (While the resource pack might be able to run, mods like ThreatenGL are highly recommended to run this resource pack, if your hardware does not support OpenGL 4.6 crashes might occur)</t>
+  </si>
+  <si>
+    <t>Known issues/Goals/Notes</t>
+  </si>
+  <si>
+    <t>VulkanMod compatibility (WIP)</t>
   </si>
 </sst>
 </file>
@@ -163,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,23 +198,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -478,7 +536,7 @@
     <col min="6" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,97 +549,143 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9650</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7">
-        <v>9650</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A17">
+    <sortCondition ref="A17"/>
+  </sortState>
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Classic Reimagined 10\resourcepacks\Classic-Reimagined\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716C3BC-84C2-4B0A-8A85-F1EC5265AEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514BC08D-BBFF-4BF9-A853-6D8501720F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -42,57 +42,9 @@
     <t>Changes done!</t>
   </si>
   <si>
-    <t>Fixed enchantment glint not working (1.21.2)</t>
-  </si>
-  <si>
-    <t>Changed panorama</t>
-  </si>
-  <si>
-    <t>Fixed VRAM leakage</t>
-  </si>
-  <si>
-    <t>Changed cloud fog to be cylindrical (1.21.2)</t>
-  </si>
-  <si>
-    <t>Fixed mipmaps</t>
-  </si>
-  <si>
-    <t>Update panorama images for title background</t>
-  </si>
-  <si>
-    <t>Fixed fire model (Sodium)</t>
-  </si>
-  <si>
-    <t>Changed dried ghast textures</t>
-  </si>
-  <si>
-    <t>10.0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Released Classic Reimagined 11 (WIP) </t>
-  </si>
-  <si>
-    <t>Fixed soul fire model (Sodium)</t>
-  </si>
-  <si>
-    <t>Added support for 1.21.9</t>
-  </si>
-  <si>
     <t>1.21.9</t>
   </si>
   <si>
-    <t>Fixed enderman emissive</t>
-  </si>
-  <si>
-    <t>Added copper stuff textures (1.21.9 - preview)</t>
-  </si>
-  <si>
-    <t>Fixed lighting (Vanilla)</t>
-  </si>
-  <si>
-    <t>Deprecated support for OpenGL 4.6 and older (Shaders are written in GLSL version 460)</t>
-  </si>
-  <si>
     <t>OpenGL 4.5 and older (While the resource pack might be able to run, mods like ThreatenGL are highly recommended to run this resource pack, if your hardware does not support OpenGL 4.6 crashes might occur)</t>
   </si>
   <si>
@@ -100,13 +52,19 @@
   </si>
   <si>
     <t>VulkanMod compatibility (WIP)</t>
+  </si>
+  <si>
+    <t>10.0.9-rt</t>
+  </si>
+  <si>
+    <t>Fixed 1.21 shaders not working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -248,20 +206,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,19 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="1"/>
+    <col min="1" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,143 +510,84 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
-        <v>9650</v>
+        <v>2508</v>
       </c>
       <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A17">
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D23"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E3:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514BC08D-BBFF-4BF9-A853-6D8501720F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D582BA3B-9551-4E86-8348-748E43378F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Fixed 1.21 shaders not working</t>
+  </si>
+  <si>
+    <t>Rewritten resource pack</t>
   </si>
 </sst>
 </file>
@@ -206,6 +209,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,9 +226,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +491,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,12 +513,12 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -533,51 +536,54 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D582BA3B-9551-4E86-8348-748E43378F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A1F54-9B4D-475C-A538-19D679EA1ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -48,9 +48,6 @@
     <t>OpenGL 4.5 and older (While the resource pack might be able to run, mods like ThreatenGL are highly recommended to run this resource pack, if your hardware does not support OpenGL 4.6 crashes might occur)</t>
   </si>
   <si>
-    <t>Known issues/Goals/Notes</t>
-  </si>
-  <si>
     <t>VulkanMod compatibility (WIP)</t>
   </si>
   <si>
@@ -61,6 +58,24 @@
   </si>
   <si>
     <t>Rewritten resource pack</t>
+  </si>
+  <si>
+    <t>Improved compatibility</t>
+  </si>
+  <si>
+    <t>Removed Programmer Art requirement</t>
+  </si>
+  <si>
+    <t>Fixed broken boat textures</t>
+  </si>
+  <si>
+    <t>CEM requirements increased to 1.21.2 for boats to avoid broken textures without OptiFine</t>
+  </si>
+  <si>
+    <t>Dropped OptiFine requirements (Unaffected Vanilla experience, OptiFine and Polytone features still work)</t>
+  </si>
+  <si>
+    <t>Known issues (Compatibility)</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -525,14 +540,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>2508</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -551,7 +566,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -560,7 +575,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -568,22 +583,41 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A1F54-9B4D-475C-A538-19D679EA1ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D65A67A-8062-483D-B12D-07927FF61C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Known issues (Compatibility)</t>
+  </si>
+  <si>
+    <t>Changed copper lantern textures</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,6 +620,11 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D65A67A-8062-483D-B12D-07927FF61C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436BDAA-0714-4783-A999-3447E25C9340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -69,16 +69,55 @@
     <t>Fixed broken boat textures</t>
   </si>
   <si>
-    <t>CEM requirements increased to 1.21.2 for boats to avoid broken textures without OptiFine</t>
-  </si>
-  <si>
-    <t>Dropped OptiFine requirements (Unaffected Vanilla experience, OptiFine and Polytone features still work)</t>
-  </si>
-  <si>
     <t>Known issues (Compatibility)</t>
   </si>
   <si>
     <t>Changed copper lantern textures</t>
+  </si>
+  <si>
+    <t>Added copper stuff textures (1.21.9 - preview)</t>
+  </si>
+  <si>
+    <t>Added support for 1.21.9</t>
+  </si>
+  <si>
+    <t>Changed cloud fog to be cylindrical (1.21.2)</t>
+  </si>
+  <si>
+    <t>Changed dried ghast textures</t>
+  </si>
+  <si>
+    <t>Fixed enchantment glint not working (1.21.2)</t>
+  </si>
+  <si>
+    <t>Fixed enderman emissive</t>
+  </si>
+  <si>
+    <t>Fixed fire model (Sodium)</t>
+  </si>
+  <si>
+    <t>Fixed lighting (Vanilla)</t>
+  </si>
+  <si>
+    <t>Fixed mipmaps</t>
+  </si>
+  <si>
+    <t>Fixed soul fire model (Sodium)</t>
+  </si>
+  <si>
+    <t>Fixed VRAM leakage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Released Classic Reimagined 11 (WIP) </t>
+  </si>
+  <si>
+    <t>Fixed CEM broken textures</t>
+  </si>
+  <si>
+    <t>Dropped OptiFine requirements</t>
+  </si>
+  <si>
+    <t>Dropped support for OpenGL 4.6 and older</t>
   </si>
 </sst>
 </file>
@@ -506,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -569,7 +608,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -578,7 +617,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -587,7 +626,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -596,7 +635,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -605,7 +644,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -614,23 +653,87 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A17">
-    <sortCondition ref="A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A24">
+    <sortCondition ref="A24"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A3:B3"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1436BDAA-0714-4783-A999-3447E25C9340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62868A-781A-46FA-B4AA-6B6D4F5FE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -54,70 +54,7 @@
     <t>10.0.9-rt</t>
   </si>
   <si>
-    <t>Fixed 1.21 shaders not working</t>
-  </si>
-  <si>
-    <t>Rewritten resource pack</t>
-  </si>
-  <si>
-    <t>Improved compatibility</t>
-  </si>
-  <si>
-    <t>Removed Programmer Art requirement</t>
-  </si>
-  <si>
-    <t>Fixed broken boat textures</t>
-  </si>
-  <si>
     <t>Known issues (Compatibility)</t>
-  </si>
-  <si>
-    <t>Changed copper lantern textures</t>
-  </si>
-  <si>
-    <t>Added copper stuff textures (1.21.9 - preview)</t>
-  </si>
-  <si>
-    <t>Added support for 1.21.9</t>
-  </si>
-  <si>
-    <t>Changed cloud fog to be cylindrical (1.21.2)</t>
-  </si>
-  <si>
-    <t>Changed dried ghast textures</t>
-  </si>
-  <si>
-    <t>Fixed enchantment glint not working (1.21.2)</t>
-  </si>
-  <si>
-    <t>Fixed enderman emissive</t>
-  </si>
-  <si>
-    <t>Fixed fire model (Sodium)</t>
-  </si>
-  <si>
-    <t>Fixed lighting (Vanilla)</t>
-  </si>
-  <si>
-    <t>Fixed mipmaps</t>
-  </si>
-  <si>
-    <t>Fixed soul fire model (Sodium)</t>
-  </si>
-  <si>
-    <t>Fixed VRAM leakage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Released Classic Reimagined 11 (WIP) </t>
-  </si>
-  <si>
-    <t>Fixed CEM broken textures</t>
-  </si>
-  <si>
-    <t>Dropped OptiFine requirements</t>
-  </si>
-  <si>
-    <t>Dropped support for OpenGL 4.6 and older</t>
   </si>
 </sst>
 </file>
@@ -545,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -607,130 +544,36 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A24">
     <sortCondition ref="A24"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62868A-781A-46FA-B4AA-6B6D4F5FE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00826299-7E15-4806-AE2D-B43F24C57DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>Known issues (Compatibility)</t>
+  </si>
+  <si>
+    <t>Improved bat CEM</t>
+  </si>
+  <si>
+    <t>Improved boat CEM</t>
+  </si>
+  <si>
+    <t>Improved cat textures</t>
+  </si>
+  <si>
+    <t>Added a split shader channel for 1.21.9</t>
+  </si>
+  <si>
+    <t>Updated explosion particles 1.21.9+</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,30 +559,45 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>

--- a/changelog.xlsx
+++ b/changelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrismLauncher\instances\1.21.7\minecraft\resourcepacks\Classic-Reimagined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00826299-7E15-4806-AE2D-B43F24C57DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAFFF3-6D03-45C0-98E8-DB7B0807BE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Minecraft Version</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Updated explosion particles 1.21.9+</t>
+  </si>
+  <si>
+    <t>Updated resource pack to work on 1.20 again</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,6 +605,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
